--- a/Mid term/Test Case/Mid term Test Case Assignment 5 Nghiem Van Long.xlsx
+++ b/Mid term/Test Case/Mid term Test Case Assignment 5 Nghiem Van Long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Nashtech\Mid term\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EFAADE-6F2D-4B01-935C-BD28E1708095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87D58F-77D2-41B5-8960-2A7B4C8E72BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{521ADDC9-03BE-49F4-9CAD-B88BB7BCF51A}"/>
   </bookViews>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>User Story 2</t>
   </si>
@@ -333,9 +333,6 @@
 2. Change that Address's status to default
 3.Click on old default address 
 4. Click on delete button </t>
-  </si>
-  <si>
-    <t>4. Delete address successfully and it will not appear on the Address Book</t>
   </si>
   <si>
     <t xml:space="preserve">1. Click on default address
@@ -368,17 +365,11 @@
 - 2 button : Cancel and Delete</t>
   </si>
   <si>
-    <t xml:space="preserve">4. This address is deleted successfully and will not be displayed in Address Book </t>
-  </si>
-  <si>
     <t>1. Click on non-default address
 2. Click on Delete button on the top right
 3. Click on Cancel button in pop-up message</t>
   </si>
   <si>
-    <t>4. This address is not deleted and back to Address edit screen</t>
-  </si>
-  <si>
     <t>1. Click on non-default address
 2. Click on Delete button on the top right
 3. Observe the pop-up message</t>
@@ -393,6 +384,16 @@
   </si>
   <si>
     <t>3. This address is not deleted and back to Address edit screen</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI
+</t>
+  </si>
+  <si>
+    <t>3. Delete address successfully and it will not appear on the Address Book</t>
   </si>
 </sst>
 </file>
@@ -401,7 +402,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -779,48 +780,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="14" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="14" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="14" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" applyFont="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" applyFont="0"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="15" borderId="8">
+    <xf numFmtId="165" fontId="5" fillId="15" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="16" borderId="8" applyAlignment="0">
+    <xf numFmtId="165" fontId="5" fillId="16" borderId="8" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="18" fillId="13" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="19" fillId="17" borderId="7">
+    <xf numFmtId="165" fontId="19" fillId="17" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="18" borderId="7">
+    <xf numFmtId="165" fontId="16" fillId="18" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -955,6 +956,18 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -983,42 +996,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1531,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB39E7-6957-480A-B7EA-7A3C3F2B3BE8}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1549,11 +1526,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1564,9 +1541,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1577,11 +1554,11 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1592,11 +1569,11 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1607,9 +1584,9 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1776,11 +1753,11 @@
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="25.5">
@@ -1812,9 +1789,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="25.5">
       <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1825,7 +1804,9 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1841,10 +1822,10 @@
       <c r="B17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="65" t="s">
+      <c r="C17" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="29"/>
@@ -1860,11 +1841,11 @@
       <c r="B18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>36</v>
+      <c r="D18" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="27"/>
@@ -1879,11 +1860,11 @@
       <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>36</v>
+      <c r="C19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="27"/>
@@ -1898,11 +1879,11 @@
       <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="27"/>
@@ -1911,17 +1892,17 @@
       <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" ht="99.75" customHeight="1">
-      <c r="A21" s="69">
+      <c r="A21" s="27">
         <v>5</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="27"/>
@@ -1949,11 +1930,11 @@
       <c r="B23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>45</v>
+      <c r="C23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="27"/>
@@ -1968,11 +1949,11 @@
       <c r="B24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>43</v>
+      <c r="C24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="27"/>
@@ -1987,11 +1968,11 @@
       <c r="B25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="69" t="s">
-        <v>46</v>
+      <c r="C25" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="27"/>
@@ -2000,17 +1981,17 @@
       <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9" ht="63.75">
-      <c r="A26" s="69">
+      <c r="A26" s="27">
         <v>9</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>49</v>
+      <c r="C26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="27"/>
@@ -2032,7 +2013,7 @@
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="69">
+      <c r="A28" s="27">
         <v>11</v>
       </c>
       <c r="B28" s="27"/>
